--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H2">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J2">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08892266666666666</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N2">
-        <v>0.266768</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O2">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P2">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q2">
-        <v>1.538680565402667</v>
+        <v>3.919235553517555</v>
       </c>
       <c r="R2">
-        <v>13.848125088624</v>
+        <v>35.27311998165799</v>
       </c>
       <c r="S2">
-        <v>0.004569767208252892</v>
+        <v>0.01185279001497953</v>
       </c>
       <c r="T2">
-        <v>0.004569767208252892</v>
+        <v>0.01185279001497954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H3">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J3">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.156485</v>
       </c>
       <c r="O3">
-        <v>0.7513293565409361</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P3">
-        <v>0.7513293565409359</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q3">
-        <v>41.27760595759501</v>
+        <v>41.71002861207</v>
       </c>
       <c r="R3">
-        <v>371.498453618355</v>
+        <v>375.39025750863</v>
       </c>
       <c r="S3">
-        <v>0.1225914295543457</v>
+        <v>0.1261419998637088</v>
       </c>
       <c r="T3">
-        <v>0.1225914295543457</v>
+        <v>0.1261419998637088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.303581</v>
+        <v>17.48485266666667</v>
       </c>
       <c r="H4">
-        <v>51.910743</v>
+        <v>52.454558</v>
       </c>
       <c r="I4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="J4">
-        <v>0.1631660316305854</v>
+        <v>0.1681324356138456</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,43 +685,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6874393333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N4">
-        <v>2.062318</v>
+        <v>1.709816</v>
       </c>
       <c r="O4">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P4">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q4">
-        <v>11.89516218691933</v>
+        <v>9.965293615703111</v>
       </c>
       <c r="R4">
-        <v>107.056459682274</v>
+        <v>89.687642541328</v>
       </c>
       <c r="S4">
-        <v>0.03532774984027202</v>
+        <v>0.03013764573515728</v>
       </c>
       <c r="T4">
-        <v>0.03532774984027202</v>
+        <v>0.03013764573515729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.303581</v>
+        <v>38.241546</v>
       </c>
       <c r="H5">
-        <v>51.910743</v>
+        <v>114.724638</v>
       </c>
       <c r="I5">
-        <v>0.1631660316305854</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J5">
-        <v>0.1631660316305854</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01317533333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N5">
-        <v>0.039526</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O5">
-        <v>0.004149669026992586</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P5">
-        <v>0.004149669026992585</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q5">
-        <v>0.2279804475353333</v>
+        <v>8.571855283082</v>
       </c>
       <c r="R5">
-        <v>2.051824027818</v>
+        <v>77.14669754773799</v>
       </c>
       <c r="S5">
-        <v>0.0006770850277147326</v>
+        <v>0.02592352496342723</v>
       </c>
       <c r="T5">
-        <v>0.0006770850277147326</v>
+        <v>0.02592352496342724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>114.724638</v>
       </c>
       <c r="I6">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J6">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08892266666666666</v>
+        <v>2.385495</v>
       </c>
       <c r="N6">
-        <v>0.266768</v>
+        <v>7.156485</v>
       </c>
       <c r="O6">
-        <v>0.02800685389345641</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P6">
-        <v>0.02800685389345641</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q6">
-        <v>3.400540247776</v>
+        <v>91.22501677527001</v>
       </c>
       <c r="R6">
-        <v>30.604862229984</v>
+        <v>821.02515097743</v>
       </c>
       <c r="S6">
-        <v>0.01009935243483384</v>
+        <v>0.2758882320762295</v>
       </c>
       <c r="T6">
-        <v>0.01009935243483384</v>
+        <v>0.2758882320762295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>114.724638</v>
       </c>
       <c r="I7">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="J7">
-        <v>0.3606028893232265</v>
+        <v>0.3677265341146663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.385495</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N7">
-        <v>7.156485</v>
+        <v>1.709816</v>
       </c>
       <c r="O7">
-        <v>0.7513293565409361</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P7">
-        <v>0.7513293565409359</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q7">
-        <v>91.22501677527001</v>
+        <v>21.795335738512</v>
       </c>
       <c r="R7">
-        <v>821.02515097743</v>
+        <v>196.158021646608</v>
       </c>
       <c r="S7">
-        <v>0.2709315368020221</v>
+        <v>0.06591477707500963</v>
       </c>
       <c r="T7">
-        <v>0.2709315368020221</v>
+        <v>0.06591477707500965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.241546</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H8">
-        <v>114.724638</v>
+        <v>20.845597</v>
       </c>
       <c r="I8">
-        <v>0.3606028893232265</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J8">
-        <v>0.3606028893232265</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,43 +933,43 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6874393333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N8">
-        <v>2.062318</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O8">
-        <v>0.216514120538615</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P8">
-        <v>0.216514120538615</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q8">
-        <v>26.288742887876</v>
+        <v>1.557515838694111</v>
       </c>
       <c r="R8">
-        <v>236.598685990884</v>
+        <v>14.017642548247</v>
       </c>
       <c r="S8">
-        <v>0.0780756174455019</v>
+        <v>0.00471033392327674</v>
       </c>
       <c r="T8">
-        <v>0.0780756174455019</v>
+        <v>0.004710333923276741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.241546</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H9">
-        <v>114.724638</v>
+        <v>20.845597</v>
       </c>
       <c r="I9">
-        <v>0.3606028893232265</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J9">
-        <v>0.3606028893232265</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01317533333333333</v>
+        <v>2.385495</v>
       </c>
       <c r="N9">
-        <v>0.039526</v>
+        <v>7.156485</v>
       </c>
       <c r="O9">
-        <v>0.004149669026992586</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P9">
-        <v>0.004149669026992585</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q9">
-        <v>0.503845115732</v>
+        <v>16.575689138505</v>
       </c>
       <c r="R9">
-        <v>4.534606041588</v>
+        <v>149.181202246545</v>
       </c>
       <c r="S9">
-        <v>0.001496382640868628</v>
+        <v>0.05012920505274161</v>
       </c>
       <c r="T9">
-        <v>0.001496382640868628</v>
+        <v>0.05012920505274162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.088018</v>
+        <v>6.948532333333334</v>
       </c>
       <c r="H10">
-        <v>57.264054</v>
+        <v>20.845597</v>
       </c>
       <c r="I10">
-        <v>0.1799925777648674</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="J10">
-        <v>0.1799925777648675</v>
+        <v>0.06681632881997925</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08892266666666666</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N10">
-        <v>0.266768</v>
+        <v>1.709816</v>
       </c>
       <c r="O10">
-        <v>0.02800685389345641</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P10">
-        <v>0.02800685389345641</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q10">
-        <v>1.697357461941333</v>
+        <v>3.960237253350223</v>
       </c>
       <c r="R10">
-        <v>15.276217157472</v>
+        <v>35.642135280152</v>
       </c>
       <c r="S10">
-        <v>0.005041025827367234</v>
+        <v>0.01197678984396089</v>
       </c>
       <c r="T10">
-        <v>0.005041025827367234</v>
+        <v>0.01197678984396089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.088018</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H11">
-        <v>57.264054</v>
+        <v>3.589481</v>
       </c>
       <c r="I11">
-        <v>0.1799925777648674</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J11">
-        <v>0.1799925777648675</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.385495</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N11">
-        <v>7.156485</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O11">
-        <v>0.7513293565409361</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P11">
-        <v>0.7513293565409359</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q11">
-        <v>45.53437149891001</v>
+        <v>0.2681944542145556</v>
       </c>
       <c r="R11">
-        <v>409.80934349019</v>
+        <v>2.413750087931</v>
       </c>
       <c r="S11">
-        <v>0.1352337076342223</v>
+        <v>0.0008110899448577711</v>
       </c>
       <c r="T11">
-        <v>0.1352337076342222</v>
+        <v>0.0008110899448577711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.088018</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H12">
-        <v>57.264054</v>
+        <v>3.589481</v>
       </c>
       <c r="I12">
-        <v>0.1799925777648674</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J12">
-        <v>0.1799925777648675</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6874393333333333</v>
+        <v>2.385495</v>
       </c>
       <c r="N12">
-        <v>2.062318</v>
+        <v>7.156485</v>
       </c>
       <c r="O12">
-        <v>0.216514120538615</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P12">
-        <v>0.216514120538615</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q12">
-        <v>13.12185436857467</v>
+        <v>2.854229659365001</v>
       </c>
       <c r="R12">
-        <v>118.096689317172</v>
+        <v>25.688066934285</v>
       </c>
       <c r="S12">
-        <v>0.03897093467823854</v>
+        <v>0.008631934555864244</v>
       </c>
       <c r="T12">
-        <v>0.03897093467823854</v>
+        <v>0.008631934555864244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.088018</v>
+        <v>1.196493666666667</v>
       </c>
       <c r="H13">
-        <v>57.264054</v>
+        <v>3.589481</v>
       </c>
       <c r="I13">
-        <v>0.1799925777648674</v>
+        <v>0.01150535255905926</v>
       </c>
       <c r="J13">
-        <v>0.1799925777648675</v>
+        <v>0.01150535255905925</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01317533333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N13">
-        <v>0.039526</v>
+        <v>1.709816</v>
       </c>
       <c r="O13">
-        <v>0.004149669026992586</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P13">
-        <v>0.004149669026992585</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q13">
-        <v>0.2514909998226666</v>
+        <v>0.6819280050551112</v>
       </c>
       <c r="R13">
-        <v>2.263418998404</v>
+        <v>6.137352045496001</v>
       </c>
       <c r="S13">
-        <v>0.0007469096250394249</v>
+        <v>0.00206232805833724</v>
       </c>
       <c r="T13">
-        <v>0.0007469096250394248</v>
+        <v>0.00206232805833724</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.158358999999999</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H14">
-        <v>9.475076999999999</v>
+        <v>15.991339</v>
       </c>
       <c r="I14">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J14">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08892266666666666</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N14">
-        <v>0.266768</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O14">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P14">
-        <v>0.02800685389345641</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q14">
-        <v>0.2808497045706666</v>
+        <v>1.194821322432111</v>
       </c>
       <c r="R14">
-        <v>2.527647341136</v>
+        <v>10.753391901889</v>
       </c>
       <c r="S14">
-        <v>0.0008341028016160581</v>
+        <v>0.003613451155671787</v>
       </c>
       <c r="T14">
-        <v>0.0008341028016160581</v>
+        <v>0.003613451155671788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.158358999999999</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H15">
-        <v>9.475076999999999</v>
+        <v>15.991339</v>
       </c>
       <c r="I15">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J15">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>7.156485</v>
       </c>
       <c r="O15">
-        <v>0.7513293565409361</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P15">
-        <v>0.7513293565409359</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q15">
-        <v>7.534249602704999</v>
+        <v>12.715753075935</v>
       </c>
       <c r="R15">
-        <v>67.80824642434499</v>
+        <v>114.441777683415</v>
       </c>
       <c r="S15">
-        <v>0.02237616276398705</v>
+        <v>0.0384557521571056</v>
       </c>
       <c r="T15">
-        <v>0.02237616276398704</v>
+        <v>0.0384557521571056</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.158358999999999</v>
+        <v>5.330446333333334</v>
       </c>
       <c r="H16">
-        <v>9.475076999999999</v>
+        <v>15.991339</v>
       </c>
       <c r="I16">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="J16">
-        <v>0.02978209565376923</v>
+        <v>0.05125699038006722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6874393333333333</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N16">
-        <v>2.062318</v>
+        <v>1.709816</v>
       </c>
       <c r="O16">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P16">
-        <v>0.216514120538615</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q16">
-        <v>2.171180205387333</v>
+        <v>3.038027475958223</v>
       </c>
       <c r="R16">
-        <v>19.540621848486</v>
+        <v>27.342247283624</v>
       </c>
       <c r="S16">
-        <v>0.006448244248272753</v>
+        <v>0.009187787067289831</v>
       </c>
       <c r="T16">
-        <v>0.006448244248272753</v>
+        <v>0.009187787067289833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.158358999999999</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H17">
-        <v>9.475076999999999</v>
+        <v>104.37796</v>
       </c>
       <c r="I17">
-        <v>0.02978209565376923</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J17">
-        <v>0.02978209565376923</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.01317533333333333</v>
+        <v>0.2241503333333333</v>
       </c>
       <c r="N17">
-        <v>0.039526</v>
+        <v>0.6724509999999999</v>
       </c>
       <c r="O17">
-        <v>0.004149669026992586</v>
+        <v>0.07049674842159644</v>
       </c>
       <c r="P17">
-        <v>0.004149669026992585</v>
+        <v>0.07049674842159645</v>
       </c>
       <c r="Q17">
-        <v>0.04161243261133332</v>
+        <v>7.798784842217779</v>
       </c>
       <c r="R17">
-        <v>0.3745118935019999</v>
+        <v>70.18906357996001</v>
       </c>
       <c r="S17">
-        <v>0.0001235858398933767</v>
+        <v>0.02358555841938337</v>
       </c>
       <c r="T17">
-        <v>0.0001235858398933767</v>
+        <v>0.02358555841938337</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.432258000000001</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H18">
-        <v>19.296774</v>
+        <v>104.37796</v>
       </c>
       <c r="I18">
-        <v>0.0606536885217046</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J18">
-        <v>0.06065368852170461</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.08892266666666666</v>
+        <v>2.385495</v>
       </c>
       <c r="N18">
-        <v>0.266768</v>
+        <v>7.156485</v>
       </c>
       <c r="O18">
-        <v>0.02800685389345641</v>
+        <v>0.750253806787303</v>
       </c>
       <c r="P18">
-        <v>0.02800685389345641</v>
+        <v>0.7502538067873031</v>
       </c>
       <c r="Q18">
-        <v>0.5719735340480001</v>
+        <v>82.99770056340002</v>
       </c>
       <c r="R18">
-        <v>5.147761806432001</v>
+        <v>746.9793050706002</v>
       </c>
       <c r="S18">
-        <v>0.001698718992526595</v>
+        <v>0.2510066830816533</v>
       </c>
       <c r="T18">
-        <v>0.001698718992526595</v>
+        <v>0.2510066830816533</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.432258000000001</v>
+        <v>34.79265333333334</v>
       </c>
       <c r="H19">
-        <v>19.296774</v>
+        <v>104.37796</v>
       </c>
       <c r="I19">
-        <v>0.0606536885217046</v>
+        <v>0.3345623585123824</v>
       </c>
       <c r="J19">
-        <v>0.06065368852170461</v>
+        <v>0.3345623585123823</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.385495</v>
+        <v>0.5699386666666667</v>
       </c>
       <c r="N19">
-        <v>7.156485</v>
+        <v>1.709816</v>
       </c>
       <c r="O19">
-        <v>0.7513293565409361</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="P19">
-        <v>0.7513293565409359</v>
+        <v>0.1792494447911006</v>
       </c>
       <c r="Q19">
-        <v>15.34411929771</v>
+        <v>19.82967845059556</v>
       </c>
       <c r="R19">
-        <v>138.09707367939</v>
+        <v>178.46710605536</v>
       </c>
       <c r="S19">
-        <v>0.04557089676884668</v>
+        <v>0.05997011701134567</v>
       </c>
       <c r="T19">
-        <v>0.04557089676884667</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6.432258000000001</v>
-      </c>
-      <c r="H20">
-        <v>19.296774</v>
-      </c>
-      <c r="I20">
-        <v>0.0606536885217046</v>
-      </c>
-      <c r="J20">
-        <v>0.06065368852170461</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.6874393333333333</v>
-      </c>
-      <c r="N20">
-        <v>2.062318</v>
-      </c>
-      <c r="O20">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="P20">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="Q20">
-        <v>4.421787151348</v>
-      </c>
-      <c r="R20">
-        <v>39.79608436213201</v>
-      </c>
-      <c r="S20">
-        <v>0.01313238002769996</v>
-      </c>
-      <c r="T20">
-        <v>0.01313238002769996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.432258000000001</v>
-      </c>
-      <c r="H21">
-        <v>19.296774</v>
-      </c>
-      <c r="I21">
-        <v>0.0606536885217046</v>
-      </c>
-      <c r="J21">
-        <v>0.06065368852170461</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01317533333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.039526</v>
-      </c>
-      <c r="O21">
-        <v>0.004149669026992586</v>
-      </c>
-      <c r="P21">
-        <v>0.004149669026992585</v>
-      </c>
-      <c r="Q21">
-        <v>0.08474714323600001</v>
-      </c>
-      <c r="R21">
-        <v>0.762724289124</v>
-      </c>
-      <c r="S21">
-        <v>0.0002516927326313733</v>
-      </c>
-      <c r="T21">
-        <v>0.0002516927326313733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>21.82515533333334</v>
-      </c>
-      <c r="H22">
-        <v>65.47546600000001</v>
-      </c>
-      <c r="I22">
-        <v>0.2058027171058468</v>
-      </c>
-      <c r="J22">
-        <v>0.2058027171058469</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.08892266666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.266768</v>
-      </c>
-      <c r="O22">
-        <v>0.02800685389345641</v>
-      </c>
-      <c r="P22">
-        <v>0.02800685389345641</v>
-      </c>
-      <c r="Q22">
-        <v>1.940751012654223</v>
-      </c>
-      <c r="R22">
-        <v>17.466759113888</v>
-      </c>
-      <c r="S22">
-        <v>0.005763886628859795</v>
-      </c>
-      <c r="T22">
-        <v>0.005763886628859795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>21.82515533333334</v>
-      </c>
-      <c r="H23">
-        <v>65.47546600000001</v>
-      </c>
-      <c r="I23">
-        <v>0.2058027171058468</v>
-      </c>
-      <c r="J23">
-        <v>0.2058027171058469</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.385495</v>
-      </c>
-      <c r="N23">
-        <v>7.156485</v>
-      </c>
-      <c r="O23">
-        <v>0.7513293565409361</v>
-      </c>
-      <c r="P23">
-        <v>0.7513293565409359</v>
-      </c>
-      <c r="Q23">
-        <v>52.06379892189001</v>
-      </c>
-      <c r="R23">
-        <v>468.5741902970101</v>
-      </c>
-      <c r="S23">
-        <v>0.1546256230175122</v>
-      </c>
-      <c r="T23">
-        <v>0.1546256230175122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>21.82515533333334</v>
-      </c>
-      <c r="H24">
-        <v>65.47546600000001</v>
-      </c>
-      <c r="I24">
-        <v>0.2058027171058468</v>
-      </c>
-      <c r="J24">
-        <v>0.2058027171058469</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.6874393333333333</v>
-      </c>
-      <c r="N24">
-        <v>2.062318</v>
-      </c>
-      <c r="O24">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="P24">
-        <v>0.216514120538615</v>
-      </c>
-      <c r="Q24">
-        <v>15.00347023224311</v>
-      </c>
-      <c r="R24">
-        <v>135.031232090188</v>
-      </c>
-      <c r="S24">
-        <v>0.0445591942986298</v>
-      </c>
-      <c r="T24">
-        <v>0.0445591942986298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>21.82515533333334</v>
-      </c>
-      <c r="H25">
-        <v>65.47546600000001</v>
-      </c>
-      <c r="I25">
-        <v>0.2058027171058468</v>
-      </c>
-      <c r="J25">
-        <v>0.2058027171058469</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.01317533333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.039526</v>
-      </c>
-      <c r="O25">
-        <v>0.004149669026992586</v>
-      </c>
-      <c r="P25">
-        <v>0.004149669026992585</v>
-      </c>
-      <c r="Q25">
-        <v>0.2875536965684445</v>
-      </c>
-      <c r="R25">
-        <v>2.587983269116001</v>
-      </c>
-      <c r="S25">
-        <v>0.0008540131608450499</v>
-      </c>
-      <c r="T25">
-        <v>0.0008540131608450498</v>
+        <v>0.05997011701134567</v>
       </c>
     </row>
   </sheetData>
